--- a/data/FinalProject_OpioidData.xlsx
+++ b/data/FinalProject_OpioidData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nat\Desktop\Columbia\Data Science II\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nat\Desktop\Columbia\DataScienceII\FinalProject\opioid_data_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FinalProject_OpioidData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
   <si>
     <t>Alabama</t>
   </si>
@@ -591,6 +591,36 @@
   </si>
   <si>
     <t>% Adults age 19-24 out of all people in the state</t>
+  </si>
+  <si>
+    <t>Medicaid</t>
+  </si>
+  <si>
+    <t>% Adults enrolled in Medicaid</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>% with a bachelor's degree or higher</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>average household income</t>
+  </si>
+  <si>
+    <t>Foreclosures</t>
+  </si>
+  <si>
+    <t>Medicaid_Rx</t>
+  </si>
+  <si>
+    <t>Foreclosure Rate October 2016 (1/every X housing unit)</t>
+  </si>
+  <si>
+    <t>Number of Medicaid Opioid prescriptions per 100,000 people (Oxycontin and Fentynol) (2016)</t>
   </si>
 </sst>
 </file>
@@ -598,7 +628,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1132,7 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1459,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7827,9 +7857,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8036,6 +8068,46 @@
       </c>
       <c r="B25" s="12" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/FinalProject_OpioidData.xlsx
+++ b/data/FinalProject_OpioidData.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FinalProject_OpioidData" sheetId="1" r:id="rId1"/>
     <sheet name="Column Descriptions" sheetId="3" r:id="rId2"/>
-    <sheet name="Notes" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="219">
   <si>
     <t>Alabama</t>
   </si>
@@ -590,27 +591,15 @@
     <t>Adults</t>
   </si>
   <si>
-    <t>% Adults age 19-24 out of all people in the state</t>
-  </si>
-  <si>
     <t>Medicaid</t>
   </si>
   <si>
-    <t>% Adults enrolled in Medicaid</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
-    <t>% with a bachelor's degree or higher</t>
-  </si>
-  <si>
     <t>Income</t>
   </si>
   <si>
-    <t>average household income</t>
-  </si>
-  <si>
     <t>Foreclosures</t>
   </si>
   <si>
@@ -621,6 +610,87 @@
   </si>
   <si>
     <t>Number of Medicaid Opioid prescriptions per 100,000 people (Oxycontin and Fentynol) (2016)</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Adults age 19-24 out of all people in the state, %</t>
+  </si>
+  <si>
+    <t>Adults enrolled in Medicaid, %</t>
+  </si>
+  <si>
+    <t>Adults with a bachelor's degree or higher, %</t>
+  </si>
+  <si>
+    <t>Average household income</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>State unemployment rate in 2016, %</t>
+  </si>
+  <si>
+    <t>Opioid Overdose Death Rate (Age-Adjusted) per 100,000 people</t>
+  </si>
+  <si>
+    <t>Medicare Part D Opioid Prescribers, per capita (number of opioid prescribers divided by total population)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Full Description </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2016 data unless otherwise stated)</t>
+    </r>
+  </si>
+  <si>
+    <t>Medicare Part D Opioid Prescribers (number of opioid prescribers divided by number of all prescribers)</t>
+  </si>
+  <si>
+    <t>People in the state under the Federal poverty level, %</t>
+  </si>
+  <si>
+    <t>People in the state living in metropolican areas, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 Prescriptions for all drugs filled at pharmacies, per capita </t>
+  </si>
+  <si>
+    <t>Individuals Reporting needing treatment for illicit drug use but not receiving it, Teens Ages 12-17 in 2014, %</t>
+  </si>
+  <si>
+    <t>Individuals Reporting needing treatment for illicit drug use but not receiving it, Adults 18+ in 2014, %</t>
+  </si>
+  <si>
+    <t>Number of Medicaid Opioid prescriptions per 100,000 people (Oxycontin and Fentynol)</t>
+  </si>
+  <si>
+    <t>Foreclosure Rate October (1/every X housing unit)</t>
+  </si>
+  <si>
+    <t>State unemployment rate, %</t>
+  </si>
+  <si>
+    <t>Adults reporting poor mental health, %</t>
+  </si>
+  <si>
+    <t>Medicaid Expansion Enrollment</t>
+  </si>
+  <si>
+    <t>Extended release prescribing rate (extended release opioid claims divided by all opioid claims)</t>
+  </si>
+  <si>
+    <t>Opioid prescribing rate (opioid claims divided by all claims)</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1198,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1144,12 +1214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1163,9 +1227,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1506,124 +1586,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="7" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1670,10 +1750,10 @@
       <c r="N2">
         <v>7004</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="11">
         <v>1.4488736269419333E-3</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <v>0.5046109510086455</v>
       </c>
       <c r="Q2">
@@ -1792,10 +1872,10 @@
       <c r="N3">
         <v>1043</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>1.4673607203151379E-3</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>0.43349958437240232</v>
       </c>
       <c r="Q3">
@@ -1914,10 +1994,10 @@
       <c r="N4">
         <v>11026</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>1.6002438245624219E-3</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <v>0.49309064889763426</v>
       </c>
       <c r="Q4">
@@ -2036,10 +2116,10 @@
       <c r="N5">
         <v>4854</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>1.648049434692561E-3</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <v>0.55966793497059841</v>
       </c>
       <c r="Q5">
@@ -2158,10 +2238,10 @@
       <c r="N6">
         <v>50424</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>1.286710574329583E-3</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <v>0.43277945619335345</v>
       </c>
       <c r="Q6">
@@ -2280,10 +2360,10 @@
       <c r="N7">
         <v>9677</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>1.7565163726130835E-3</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <v>0.4974042662554613</v>
       </c>
       <c r="Q7">
@@ -2402,10 +2482,10 @@
       <c r="N8">
         <v>6307</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>1.7665182197574433E-3</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <v>0.37097817775424974</v>
       </c>
       <c r="Q8">
@@ -2524,10 +2604,10 @@
       <c r="N9">
         <v>1647</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>1.7369753216620967E-3</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <v>0.47259684361549498</v>
       </c>
       <c r="Q9">
@@ -2646,10 +2726,10 @@
       <c r="N10">
         <v>1356</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>1.9772528433945756E-3</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>0.28625712476250792</v>
       </c>
       <c r="Q10">
@@ -2768,10 +2848,10 @@
       <c r="N11">
         <v>26665</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>1.2978637449927721E-3</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <v>0.39244399964677834</v>
       </c>
       <c r="Q11">
@@ -2890,10 +2970,10 @@
       <c r="N12">
         <v>13546</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>1.3176017430550151E-3</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <v>0.47759404858442339</v>
       </c>
       <c r="Q12">
@@ -3012,10 +3092,10 @@
       <c r="N13">
         <v>1693</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>1.2158862395863258E-3</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <v>0.40042573320719016</v>
       </c>
       <c r="Q13">
@@ -3134,10 +3214,10 @@
       <c r="N14">
         <v>2863</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="11">
         <v>1.7051816557474688E-3</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="11">
         <v>0.54962564791706658</v>
       </c>
       <c r="Q14">
@@ -3256,10 +3336,10 @@
       <c r="N15">
         <v>18905</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="11">
         <v>1.4995161571775308E-3</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="11">
         <v>0.41526633717737504</v>
       </c>
       <c r="Q15">
@@ -3378,10 +3458,10 @@
       <c r="N16">
         <v>10762</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="11">
         <v>1.6548775987206298E-3</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="11">
         <v>0.50954026797973584</v>
       </c>
       <c r="Q16">
@@ -3500,10 +3580,10 @@
       <c r="N17">
         <v>5132</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>1.6521795119438542E-3</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <v>0.48580083301779631</v>
       </c>
       <c r="Q17">
@@ -3622,10 +3702,10 @@
       <c r="N18">
         <v>5036</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>1.7577661431064573E-3</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="11">
         <v>0.5144024514811032</v>
       </c>
       <c r="Q18">
@@ -3744,10 +3824,10 @@
       <c r="N19">
         <v>6983</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>1.5913130668611275E-3</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>0.44446566100184581</v>
       </c>
       <c r="Q19">
@@ -3866,10 +3946,10 @@
       <c r="N20">
         <v>7954</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>1.7372501911106257E-3</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <v>0.49324072925710033</v>
       </c>
       <c r="Q20">
@@ -3988,10 +4068,10 @@
       <c r="N21">
         <v>2980</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <v>2.2548426150121067E-3</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <v>0.49256198347107438</v>
       </c>
       <c r="Q21">
@@ -4110,10 +4190,10 @@
       <c r="N22">
         <v>9191</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>1.5491841963322546E-3</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>0.40555089793937255</v>
       </c>
       <c r="Q22">
@@ -4232,10 +4312,10 @@
       <c r="N23">
         <v>13344</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="11">
         <v>1.9682577143194289E-3</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="11">
         <v>0.38094150560963774</v>
       </c>
       <c r="Q23">
@@ -4354,10 +4434,10 @@
       <c r="N24">
         <v>19643</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="11">
         <v>1.9855051954878098E-3</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <v>0.48190672456514805</v>
       </c>
       <c r="Q24">
@@ -4476,10 +4556,10 @@
       <c r="N25">
         <v>9829</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="11">
         <v>1.8079314277305669E-3</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="11">
         <v>0.45998689629352302</v>
       </c>
       <c r="Q25">
@@ -4598,10 +4678,10 @@
       <c r="N26">
         <v>4887</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="11">
         <v>1.6576778263966622E-3</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <v>0.55089617855935069</v>
       </c>
       <c r="Q26">
@@ -4720,10 +4800,10 @@
       <c r="N27">
         <v>9381</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="11">
         <v>1.5930510978654031E-3</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <v>0.444892345632173</v>
       </c>
       <c r="Q27">
@@ -4842,10 +4922,10 @@
       <c r="N28">
         <v>1990</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <v>1.9217769193626266E-3</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <v>0.5179593961478397</v>
       </c>
       <c r="Q28">
@@ -4964,10 +5044,10 @@
       <c r="N29">
         <v>3266</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="11">
         <v>1.7408453707158467E-3</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="11">
         <v>0.47533110173191673</v>
       </c>
       <c r="Q29">
@@ -5086,10 +5166,10 @@
       <c r="N30">
         <v>3858</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="11">
         <v>1.3108181571079099E-3</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="11">
         <v>0.51085805084745761</v>
       </c>
       <c r="Q30">
@@ -5208,10 +5288,10 @@
       <c r="N31">
         <v>2642</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="11">
         <v>2.0044002731204008E-3</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="11">
         <v>0.45402990204502491</v>
       </c>
       <c r="Q31">
@@ -5330,10 +5410,10 @@
       <c r="N32">
         <v>12250</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="11">
         <v>1.383946223803875E-3</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="11">
         <v>0.39368813472168657</v>
       </c>
       <c r="Q32">
@@ -5452,10 +5532,10 @@
       <c r="N33">
         <v>3359</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="11">
         <v>1.6425427872860635E-3</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="11">
         <v>0.46517102894335965</v>
       </c>
       <c r="Q33">
@@ -5574,10 +5654,10 @@
       <c r="N34">
         <v>28544</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="11">
         <v>1.465124754264127E-3</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="11">
         <v>0.31213025839538977</v>
       </c>
       <c r="Q34">
@@ -5696,10 +5776,10 @@
       <c r="N35">
         <v>18000</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="11">
         <v>1.7877893984088674E-3</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="11">
         <v>0.52032144302480199</v>
       </c>
       <c r="Q35">
@@ -5818,10 +5898,10 @@
       <c r="N36">
         <v>1369</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="11">
         <v>1.8265510340226818E-3</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="11">
         <v>0.48153359127682027</v>
       </c>
       <c r="Q36">
@@ -5940,10 +6020,10 @@
       <c r="N37">
         <v>20580</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="11">
         <v>1.7944492401056789E-3</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <v>0.46631772143294131</v>
       </c>
       <c r="Q37">
@@ -6062,10 +6142,10 @@
       <c r="N38">
         <v>5969</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="11">
         <v>1.5222769120909949E-3</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <v>0.50362807964900436</v>
       </c>
       <c r="Q38">
@@ -6184,10 +6264,10 @@
       <c r="N39">
         <v>8173</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>1.9788387971526804E-3</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <v>0.51007926106222301</v>
       </c>
       <c r="Q39">
@@ -6306,10 +6386,10 @@
       <c r="N40">
         <v>23659</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="11">
         <v>1.8839933428359838E-3</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="11">
         <v>0.42040265117188191</v>
       </c>
       <c r="Q40">
@@ -6428,10 +6508,10 @@
       <c r="N41">
         <v>2055</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="11">
         <v>1.9491605804799392E-3</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="11">
         <v>0.41861886331228354</v>
       </c>
       <c r="Q41">
@@ -6550,10 +6630,10 @@
       <c r="N42">
         <v>7904</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="11">
         <v>1.6103007089886725E-3</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="11">
         <v>0.52006843005658643</v>
       </c>
       <c r="Q42">
@@ -6672,10 +6752,10 @@
       <c r="N43">
         <v>1634</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="11">
         <v>1.9102174421323358E-3</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="11">
         <v>0.50525664811379101</v>
       </c>
       <c r="Q43">
@@ -6794,10 +6874,10 @@
       <c r="N44">
         <v>13014</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="11">
         <v>1.9499258326965434E-3</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="11">
         <v>0.533382515676872</v>
       </c>
       <c r="Q44">
@@ -6916,10 +6996,10 @@
       <c r="N45">
         <v>31612</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="11">
         <v>1.1421675603023426E-3</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="11">
         <v>0.44382046134190684</v>
       </c>
       <c r="Q45">
@@ -7038,10 +7118,10 @@
       <c r="N46">
         <v>4124</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="11">
         <v>1.3390914699483716E-3</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="11">
         <v>0.48205727644652252</v>
       </c>
       <c r="Q46">
@@ -7160,10 +7240,10 @@
       <c r="N47">
         <v>1189</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="11">
         <v>1.9100401606425702E-3</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="11">
         <v>0.44648892226811865</v>
       </c>
       <c r="Q47">
@@ -7282,10 +7362,10 @@
       <c r="N48">
         <v>12035</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="11">
         <v>1.47217125382263E-3</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="11">
         <v>0.46659946497111621</v>
       </c>
       <c r="Q48">
@@ -7404,10 +7484,10 @@
       <c r="N49">
         <v>12503</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="11">
         <v>1.7133734394913188E-3</v>
       </c>
-      <c r="P49" s="13">
+      <c r="P49" s="11">
         <v>0.47929924097216897</v>
       </c>
       <c r="Q49">
@@ -7526,10 +7606,10 @@
       <c r="N50">
         <v>3230</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="11">
         <v>1.7804972162504824E-3</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P50" s="11">
         <v>0.44848653151902251</v>
       </c>
       <c r="Q50">
@@ -7648,10 +7728,10 @@
       <c r="N51">
         <v>10355</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="11">
         <v>1.7958412098298677E-3</v>
       </c>
-      <c r="P51" s="13">
+      <c r="P51" s="11">
         <v>0.49614297350390496</v>
       </c>
       <c r="Q51">
@@ -7770,10 +7850,10 @@
       <c r="N52">
         <v>904</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O52" s="11">
         <v>1.5812489067692846E-3</v>
       </c>
-      <c r="P52" s="13">
+      <c r="P52" s="11">
         <v>0.5047459519821329</v>
       </c>
       <c r="Q52">
@@ -7857,257 +7937,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" style="10" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B28" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B29" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B30" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="B31" s="15" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8117,6 +8205,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -8133,7 +8441,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>164</v>
       </c>
     </row>
